--- a/data/outputs/OR_elsevier/2 .xlsx
+++ b/data/outputs/OR_elsevier/2 .xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS79"/>
+  <dimension ref="A1:BU79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -949,6 +959,12 @@
           <t>2-s2.0-84954425394</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1156,6 +1172,12 @@
           <t>2-s2.0-84954439569</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1370,6 +1392,12 @@
         <is>
           <t>2-s2.0-84954441447</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1578,6 +1606,12 @@
           <t>2-s2.0-84955203166</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1785,6 +1819,12 @@
           <t>2-s2.0-84983580845</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1992,6 +2032,12 @@
           <t>2-s2.0-84943373407</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2215,6 +2261,12 @@
           <t>2-s2.0-84955213569</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2426,6 +2478,12 @@
           <t>2-s2.0-84955201891</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2644,6 +2702,12 @@
         <is>
           <t>2-s2.0-84978023680</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -2854,6 +2918,12 @@
           <t>2-s2.0-84955213391</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3069,6 +3139,12 @@
           <t>2-s2.0-84954435946</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3292,6 +3368,12 @@
           <t>2-s2.0-85027935770</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3507,6 +3589,12 @@
           <t>2-s2.0-84943168224</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3730,6 +3818,12 @@
           <t>2-s2.0-84924870763</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3945,6 +4039,12 @@
           <t>2-s2.0-84943147026</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4160,6 +4260,12 @@
           <t>2-s2.0-84943186276</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4375,6 +4481,12 @@
           <t>2-s2.0-84943171959</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4589,6 +4701,12 @@
         <is>
           <t>2-s2.0-84943170630</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4801,6 +4919,12 @@
           <t>2-s2.0-84943185456</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5008,6 +5132,12 @@
           <t>2-s2.0-84943167250</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5223,6 +5353,12 @@
           <t>2-s2.0-84943197546</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5446,6 +5582,12 @@
           <t>2-s2.0-84943194794</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5660,6 +5802,12 @@
         <is>
           <t>2-s2.0-84937639580</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -5868,6 +6016,12 @@
           <t>2-s2.0-84937637306</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6075,6 +6229,12 @@
           <t>2-s2.0-84937630455</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6282,6 +6442,12 @@
           <t>2-s2.0-84937642393</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6492,6 +6658,12 @@
         <is>
           <t>2-s2.0-84937569618</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -6700,6 +6872,12 @@
           <t>2-s2.0-84937628787</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6918,6 +7096,12 @@
         <is>
           <t>2-s2.0-84937643024</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -7122,6 +7306,12 @@
           <t>2-s2.0-84937638071</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7345,6 +7535,12 @@
           <t>2-s2.0-84937629088</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7563,6 +7759,12 @@
         <is>
           <t>2-s2.0-84937638454</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -7770,6 +7972,12 @@
         <is>
           <t>2-s2.0-84937635956</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -7958,6 +8166,12 @@
       <c r="BQ35" t="inlineStr"/>
       <c r="BR35" t="inlineStr"/>
       <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8172,6 +8386,12 @@
         <is>
           <t>2-s2.0-84929842214</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -8386,6 +8606,12 @@
           <t>2-s2.0-84929842355</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8601,6 +8827,12 @@
           <t>2-s2.0-84929840674</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8822,6 +9054,12 @@
           <t>2-s2.0-84929839096</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9041,6 +9279,12 @@
           <t>2-s2.0-84929834043</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9262,6 +9506,12 @@
           <t>2-s2.0-84929840190</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9485,6 +9735,12 @@
           <t>2-s2.0-84929836022</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9709,6 +9965,12 @@
         <is>
           <t>2-s2.0-84929840331</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -9921,6 +10183,12 @@
           <t>2-s2.0-84929761353</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10143,6 +10411,12 @@
         <is>
           <t>2-s2.0-84927692804</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -10343,6 +10617,12 @@
           <t>2-s2.0-84927653883</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10542,6 +10822,12 @@
           <t>2-s2.0-84927661559</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10749,6 +11035,12 @@
           <t>2-s2.0-84927620177</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10964,6 +11256,12 @@
           <t>2-s2.0-84927689315</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11179,6 +11477,12 @@
           <t>2-s2.0-84927693457</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11398,6 +11702,12 @@
           <t>2-s2.0-84927695846</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11625,6 +11935,12 @@
           <t>2-s2.0-85027946073</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11855,6 +12171,12 @@
         <is>
           <t>2-s2.0-84927667734</t>
         </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -12059,6 +12381,12 @@
           <t>2-s2.0-84927607665</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12258,6 +12586,12 @@
           <t>2-s2.0-84927606967</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12465,6 +12799,12 @@
           <t>2-s2.0-84927599339</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12687,6 +13027,12 @@
         <is>
           <t>2-s2.0-84927691864</t>
         </is>
+      </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -12899,6 +13245,12 @@
           <t>2-s2.0-84927692943</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13110,6 +13462,12 @@
           <t>2-s2.0-84927609967</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13328,6 +13686,12 @@
         <is>
           <t>2-s2.0-84927691371</t>
         </is>
+      </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -13536,6 +13900,12 @@
           <t>2-s2.0-84923356020</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13749,6 +14119,12 @@
           <t>2-s2.0-84923368215</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13952,6 +14328,12 @@
           <t>2-s2.0-84923358038</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14154,6 +14536,12 @@
         <is>
           <t>2-s2.0-84923322427</t>
         </is>
+      </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -14358,6 +14746,12 @@
           <t>2-s2.0-84923386107</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14565,6 +14959,12 @@
           <t>2-s2.0-84923377854</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14771,6 +15171,12 @@
         <is>
           <t>2-s2.0-84923633406</t>
         </is>
+      </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -14971,6 +15377,12 @@
           <t>2-s2.0-84923337428</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15170,6 +15582,12 @@
           <t>2-s2.0-84983657363</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15377,6 +15795,12 @@
           <t>2-s2.0-84923586959</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15579,6 +16003,12 @@
         <is>
           <t>2-s2.0-84923367111</t>
         </is>
+      </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -15779,6 +16209,12 @@
           <t>2-s2.0-84923346775</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15990,6 +16426,12 @@
           <t>2-s2.0-84923559369</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16192,6 +16634,12 @@
         <is>
           <t>2-s2.0-84923354347</t>
         </is>
+      </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -16392,6 +16840,12 @@
           <t>2-s2.0-84923329940</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16612,6 +17066,12 @@
         <is>
           <t>2-s2.0-84923336001</t>
         </is>
+      </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -16812,6 +17272,12 @@
           <t>2-s2.0-84923368724</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17015,6 +17481,12 @@
           <t>2-s2.0-84923363471</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17242,6 +17714,12 @@
           <t>2-s2.0-84923355419</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
